--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3389875.233742264</v>
+        <v>3387479.577737082</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>5.770377255371075</v>
       </c>
       <c r="F2" t="n">
-        <v>330.9475647999247</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.57458572019161</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.10129804361293</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>223.551828802917</v>
+        <v>166.6677888758711</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>66.12803363640458</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>192.8727801768997</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>239.5094493590971</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>223.551828802917</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>206.2864326596781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.1605539371083</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532361</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.355549430153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.556133290409</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="C2" t="n">
-        <v>1142.556133290409</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="D2" t="n">
-        <v>784.2904346836588</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5021820854145</v>
+        <v>882.1042769845561</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054108</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178248</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136017</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.69769069362</v>
+        <v>988.79373224816</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1436.225927159631</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.28901624584</v>
+        <v>2077.249136779525</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>1532.695465266221</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1142.556133290409</v>
+        <v>887.9329408788703</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648431</v>
+        <v>672.0688791685436</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081764</v>
+        <v>1313.092088788438</v>
       </c>
       <c r="O3" t="n">
-        <v>2339.914048917185</v>
+        <v>1941.820736623857</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.6350874814377</v>
+        <v>112.508237185055</v>
       </c>
       <c r="C4" t="n">
-        <v>222.6989045535308</v>
+        <v>112.508237185055</v>
       </c>
       <c r="D4" t="n">
-        <v>72.58226514119508</v>
+        <v>112.508237185055</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>112.508237185055</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>112.508237185055</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968571</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353225</v>
+        <v>595.1822762889592</v>
       </c>
       <c r="V4" t="n">
-        <v>1022.065682353225</v>
+        <v>340.4977880830724</v>
       </c>
       <c r="W4" t="n">
-        <v>1022.065682353225</v>
+        <v>340.4977880830724</v>
       </c>
       <c r="X4" t="n">
-        <v>794.0761314552076</v>
+        <v>112.508237185055</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.2835523116775</v>
+        <v>112.508237185055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>898.1833666278133</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="X5" t="n">
-        <v>2364.182838057231</v>
+        <v>2043.885055608158</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.043506081419</v>
+        <v>1653.745723632347</v>
       </c>
     </row>
     <row r="6">
@@ -4644,10 +4644,10 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
         <v>896.1151064594483</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.7188138990833</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="C7" t="n">
-        <v>516.7826309711764</v>
+        <v>286.5720376330562</v>
       </c>
       <c r="D7" t="n">
-        <v>366.6659915588407</v>
+        <v>286.5720376330562</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
         <v>219.7760440609304</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.177819705017</v>
+        <v>972.914941495941</v>
       </c>
       <c r="W7" t="n">
-        <v>1095.35682962734</v>
+        <v>683.4977714589804</v>
       </c>
       <c r="X7" t="n">
-        <v>867.3672787293231</v>
+        <v>455.5082205609631</v>
       </c>
       <c r="Y7" t="n">
-        <v>867.3672787293231</v>
+        <v>455.5082205609631</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="X8" t="n">
-        <v>2364.182838057231</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.043506081419</v>
+        <v>1443.936635928376</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1480.804272147217</v>
       </c>
       <c r="O9" t="n">
         <v>1987.759237993047</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.7657712454554</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>349.8295883175485</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.613536154203</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.196366117243</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>921.2068152192253</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.4142360756952</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,31 +5054,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,16 +5185,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5604,16 +5604,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6084,10 +6084,10 @@
         <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6218,31 +6218,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580292</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601188</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7132,13 +7132,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>143.3909986625129</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083451</v>
       </c>
       <c r="P2" t="n">
-        <v>188.848606599679</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>12.59758182665658</v>
+        <v>204.6347509527575</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144494</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903276</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731535.1779719512</v>
+        <v>731535.1779719515</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042355</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695066</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695033</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.2567096943</v>
+        <v>-449876.2567096918</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012052</v>
+        <v>343625.3890012026</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.7487910977</v>
+        <v>516389.748791097</v>
       </c>
       <c r="E6" t="n">
-        <v>118133.0616196523</v>
+        <v>118098.3236942168</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.9293654034</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399673</v>
       </c>
       <c r="J6" t="n">
-        <v>449607.912539355</v>
+        <v>449573.1746139191</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399673</v>
       </c>
       <c r="M6" t="n">
-        <v>488137.472461168</v>
+        <v>488102.7345357317</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654033</v>
+        <v>618987.1914399676</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>376.1599928168907</v>
       </c>
       <c r="F2" t="n">
-        <v>75.92848094178675</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>125.8593769263776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>106.5372566391944</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>146.179271875552</v>
+        <v>203.063311802598</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>80.30592901016459</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>93.65021815969132</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>125.7634424119104</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>146.179271875552</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>45.8512106641499</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>160.3624443994827</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31698,22 +31698,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181827</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,31 +33737,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.11270320829</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>451.9517120317889</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1762099220056</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>186.6672393556563</v>
+        <v>378.704408481756</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>600.1700598319389</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35173,28 +35173,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>512.0757230765964</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
         <v>328.1069739656114</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638456</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37783,7 +37783,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
